--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1981616.143976334</v>
+        <v>1981084.823945754</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274964.6871733047</v>
+        <v>274964.6871733051</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>133.237554577482</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -712,19 +712,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>98.93871561313627</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>53.63758095547422</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>134.2265259842367</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.36692188660383</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>194.5372218588235</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.753927880663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>96.331165834655</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>418.2942882004972</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>170.0724379985909</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1296,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>20.5675417838135</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1344,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.073558144656</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.436997393288</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T11" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284557</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T13" t="n">
         <v>243.400138899798</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>35.98242176597088</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T14" t="n">
         <v>217.819703146337</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.09447435282203</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>137.7196105885407</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,7 +1782,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.5652879271376</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T17" t="n">
         <v>217.819703146337</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.698318960931096</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T19" t="n">
         <v>243.400138899798</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T20" t="n">
         <v>217.819703146337</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>124.8074391266574</v>
       </c>
       <c r="H22" t="n">
-        <v>8.124603117096932</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.400138899798</v>
@@ -2320,10 +2320,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T23" t="n">
         <v>217.819703146337</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.5652879271376</v>
@@ -2535,10 +2535,10 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>149.2677707540657</v>
       </c>
       <c r="W25" t="n">
-        <v>62.35072501562054</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T26" t="n">
         <v>217.819703146337</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T28" t="n">
         <v>243.400138899798</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>219.003294511677</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T29" t="n">
         <v>217.819703146337</v>
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>19.13402531888605</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9305612960722</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T31" t="n">
         <v>243.400138899798</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T32" t="n">
         <v>217.819703146337</v>
@@ -3204,10 +3204,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T34" t="n">
-        <v>40.05780385989087</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U34" t="n">
         <v>275.6484088706061</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.57146396962429</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T35" t="n">
         <v>217.819703146337</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.62897272389382</v>
@@ -3477,7 +3477,7 @@
         <v>157.5652879271376</v>
       </c>
       <c r="T37" t="n">
-        <v>130.8108804175571</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U37" t="n">
         <v>275.6484088706061</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>145.9297559466559</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3731502167426</v>
+        <v>397.3731502167436</v>
       </c>
       <c r="H38" t="n">
         <v>286.1292424873029</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.57146396962423</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T38" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6292234284557</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>117.09046971636</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T40" t="n">
         <v>243.400138899798</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3731502167426</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H41" t="n">
         <v>286.1292424873029</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.57146396962422</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T41" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6292234284557</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4604679489429</v>
+        <v>29.11237900186403</v>
       </c>
       <c r="I43" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.5652879271376</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>86.18791224714128</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.57146396962429</v>
+        <v>82.57146396962457</v>
       </c>
       <c r="T44" t="n">
-        <v>217.819703146337</v>
+        <v>217.8197031463362</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284557</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>36.01791210739915</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.25446553279483</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.5652879271376</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.2703074818033</v>
+        <v>443.0234284442651</v>
       </c>
       <c r="C2" t="n">
-        <v>915.1682387056308</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>883.2988579204793</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
         <v>323.4906125312521</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>991.6923035150976</v>
+        <v>1293.526232558367</v>
       </c>
       <c r="W2" t="n">
-        <v>990.8772529665349</v>
+        <v>888.6707779694007</v>
       </c>
       <c r="X2" t="n">
-        <v>975.7751935862497</v>
+        <v>469.5283145487113</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.5294739263071</v>
+        <v>465.2825948887688</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>857.0776321906106</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1277.130531135514</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1697.183430080417</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9834958514739</v>
+        <v>943.243825464227</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9834958514739</v>
+        <v>770.682113947452</v>
       </c>
       <c r="D4" t="n">
         <v>604.8041211489747</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1135.062444183214</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1135.062444183214</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>1135.062444183214</v>
       </c>
       <c r="X4" t="n">
-        <v>886.4031665373657</v>
+        <v>1135.062444183214</v>
       </c>
       <c r="Y4" t="n">
-        <v>658.9834958514739</v>
+        <v>1135.062444183214</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1262.411662518267</v>
+        <v>736.0997507285773</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.309593742094</v>
+        <v>297.9572779120006</v>
       </c>
       <c r="D5" t="n">
-        <v>1196.440212956943</v>
+        <v>101.4550336101587</v>
       </c>
       <c r="E5" t="n">
-        <v>1166.705872155642</v>
+        <v>71.72069280885796</v>
       </c>
       <c r="F5" t="n">
-        <v>738.8384425648496</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="G5" t="n">
-        <v>337.4406111881135</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3104566313298</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="I5" t="n">
-        <v>47.8936672584698</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="J5" t="n">
-        <v>483.1483547113877</v>
+        <v>483.1483547113876</v>
       </c>
       <c r="K5" t="n">
-        <v>1075.832487034951</v>
+        <v>483.1483547113876</v>
       </c>
       <c r="L5" t="n">
-        <v>1632.84516584687</v>
+        <v>483.1483547113876</v>
       </c>
       <c r="M5" t="n">
-        <v>1632.84516584687</v>
+        <v>483.1483547113876</v>
       </c>
       <c r="N5" t="n">
-        <v>1632.84516584687</v>
+        <v>493.6622475647098</v>
       </c>
       <c r="O5" t="n">
-        <v>1632.84516584687</v>
+        <v>1086.346379888273</v>
       </c>
       <c r="P5" t="n">
-        <v>2225.529298170433</v>
+        <v>1679.030512211836</v>
       </c>
       <c r="Q5" t="n">
-        <v>2225.529298170433</v>
+        <v>2225.529298170431</v>
       </c>
       <c r="R5" t="n">
-        <v>2394.68336292349</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="S5" t="n">
-        <v>2394.68336292349</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="T5" t="n">
-        <v>2394.68336292349</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="U5" t="n">
-        <v>2135.461060240507</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="V5" t="n">
-        <v>1772.844110174334</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="W5" t="n">
-        <v>1772.029059625771</v>
+        <v>1989.827908334521</v>
       </c>
       <c r="X5" t="n">
-        <v>1352.886596205082</v>
+        <v>1570.685444913832</v>
       </c>
       <c r="Y5" t="n">
-        <v>1348.640876545139</v>
+        <v>1162.399321213485</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>554.0654122497626</v>
+        <v>554.0654122497625</v>
       </c>
       <c r="C6" t="n">
-        <v>447.6089510864049</v>
+        <v>447.6089510864048</v>
       </c>
       <c r="D6" t="n">
         <v>352.5186622329581</v>
       </c>
       <c r="E6" t="n">
-        <v>258.3982475599119</v>
+        <v>258.3982475599118</v>
       </c>
       <c r="F6" t="n">
-        <v>175.0144091760735</v>
+        <v>175.0144091760734</v>
       </c>
       <c r="G6" t="n">
-        <v>89.62931944225733</v>
+        <v>89.6293194422573</v>
       </c>
       <c r="H6" t="n">
-        <v>47.8936672584698</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="I6" t="n">
-        <v>47.8936672584698</v>
+        <v>73.95734041892737</v>
       </c>
       <c r="J6" t="n">
-        <v>47.8936672584698</v>
+        <v>398.5156653851396</v>
       </c>
       <c r="K6" t="n">
-        <v>47.8936672584698</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="L6" t="n">
-        <v>47.8936672584698</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="M6" t="n">
-        <v>47.8936672584698</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="N6" t="n">
-        <v>460.5375796872997</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="O6" t="n">
-        <v>460.5375796872997</v>
+        <v>991.1997977087029</v>
       </c>
       <c r="P6" t="n">
         <v>1053.221712010863</v>
@@ -4685,13 +4685,13 @@
         <v>1142.045282578231</v>
       </c>
       <c r="W6" t="n">
-        <v>956.7225283114251</v>
+        <v>956.7225283114249</v>
       </c>
       <c r="X6" t="n">
-        <v>801.855092550305</v>
+        <v>801.8550925503049</v>
       </c>
       <c r="Y6" t="n">
-        <v>675.3693133295258</v>
+        <v>675.3693133295257</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>784.3667810336301</v>
+        <v>487.5175904383005</v>
       </c>
       <c r="C7" t="n">
-        <v>611.805069516855</v>
+        <v>314.9558789215254</v>
       </c>
       <c r="D7" t="n">
-        <v>611.805069516855</v>
+        <v>217.6516710077325</v>
       </c>
       <c r="E7" t="n">
-        <v>442.0470657675923</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="F7" t="n">
-        <v>442.0470657675923</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="G7" t="n">
-        <v>276.45579079342</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="H7" t="n">
-        <v>136.5536164837945</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="I7" t="n">
-        <v>47.8936672584698</v>
+        <v>47.89366725846976</v>
       </c>
       <c r="J7" t="n">
-        <v>134.4733524231597</v>
+        <v>134.4733524231596</v>
       </c>
       <c r="K7" t="n">
-        <v>139.361892756516</v>
+        <v>409.2318069942952</v>
       </c>
       <c r="L7" t="n">
-        <v>557.5717745244771</v>
+        <v>827.4416887622561</v>
       </c>
       <c r="M7" t="n">
-        <v>1017.05564170539</v>
+        <v>1017.055641705388</v>
       </c>
       <c r="N7" t="n">
-        <v>1459.314444863035</v>
+        <v>1459.314444863032</v>
       </c>
       <c r="O7" t="n">
-        <v>1878.983694088816</v>
+        <v>1878.983694088814</v>
       </c>
       <c r="P7" t="n">
-        <v>2226.490588059158</v>
+        <v>2226.490588059155</v>
       </c>
       <c r="Q7" t="n">
-        <v>2394.68336292349</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="R7" t="n">
-        <v>2373.265541628862</v>
+        <v>2394.683362923488</v>
       </c>
       <c r="S7" t="n">
-        <v>2214.024172926859</v>
+        <v>2235.441994221484</v>
       </c>
       <c r="T7" t="n">
-        <v>1968.144726505314</v>
+        <v>1989.56254779994</v>
       </c>
       <c r="U7" t="n">
-        <v>1689.711725758419</v>
+        <v>1711.129547053045</v>
       </c>
       <c r="V7" t="n">
-        <v>1402.75621762885</v>
+        <v>1424.174038923475</v>
       </c>
       <c r="W7" t="n">
-        <v>1130.729813215141</v>
+        <v>1152.147634509767</v>
       </c>
       <c r="X7" t="n">
-        <v>1130.729813215141</v>
+        <v>906.7558798431794</v>
       </c>
       <c r="Y7" t="n">
-        <v>903.3101425292493</v>
+        <v>679.3362091572876</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>577.3912258549058</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C8" t="n">
-        <v>543.2891570787331</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
         <v>107.3793722531775</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1462.721985931055</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1462.721985931055</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1462.721985931055</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2194.551384075585</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1831.934434009412</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.119383460849</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1411.97692004016</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1003.690796339814</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.9943193530034</v>
+        <v>987.3566790731575</v>
       </c>
       <c r="C10" t="n">
-        <v>613.4326078362284</v>
+        <v>814.7949675563824</v>
       </c>
       <c r="D10" t="n">
-        <v>447.554615037751</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4992,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y10" t="n">
-        <v>977.8129380719906</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G11" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H11" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J11" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K11" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L11" t="n">
-        <v>1181.22304338293</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M11" t="n">
-        <v>1455.309353437234</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N11" t="n">
-        <v>2582.930975126825</v>
+        <v>2582.930975126826</v>
       </c>
       <c r="O11" t="n">
         <v>3564.895917787388</v>
       </c>
       <c r="P11" t="n">
-        <v>4394.729484459995</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q11" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R11" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S11" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T11" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U11" t="n">
         <v>4549.545294689023</v>
@@ -5114,34 +5114,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I12" t="n">
-        <v>128.5027079435546</v>
+        <v>102.439034783097</v>
       </c>
       <c r="J12" t="n">
-        <v>453.5966538717915</v>
+        <v>102.9746557451216</v>
       </c>
       <c r="K12" t="n">
-        <v>454.5121154083432</v>
+        <v>103.8901172816732</v>
       </c>
       <c r="L12" t="n">
-        <v>455.7430664192074</v>
+        <v>281.2378818390805</v>
       </c>
       <c r="M12" t="n">
-        <v>1219.570288182089</v>
+        <v>282.6743436085508</v>
       </c>
       <c r="N12" t="n">
-        <v>1221.044768820272</v>
+        <v>284.1488242467336</v>
       </c>
       <c r="O12" t="n">
-        <v>1222.393630541034</v>
+        <v>285.4976859674962</v>
       </c>
       <c r="P12" t="n">
-        <v>1223.476210989696</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q12" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R12" t="n">
         <v>1765.290817548849</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.401149089404</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C13" t="n">
-        <v>831.839437572629</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D13" t="n">
-        <v>665.9614447741517</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E13" t="n">
-        <v>496.2034410248889</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F13" t="n">
-        <v>496.2034410248889</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G13" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H13" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J13" t="n">
         <v>189.1595596197742</v>
@@ -5214,37 +5214,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O13" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P13" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q13" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R13" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S13" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T13" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.967231609249</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V13" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W13" t="n">
-        <v>1459.985319065971</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X13" t="n">
-        <v>1423.639438494283</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y13" t="n">
-        <v>1196.219767808391</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C14" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F14" t="n">
-        <v>792.6503003533098</v>
+        <v>792.6503003533089</v>
       </c>
       <c r="G14" t="n">
         <v>391.2632799323575</v>
@@ -5278,16 +5278,16 @@
         <v>102.2438430764959</v>
       </c>
       <c r="J14" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K14" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L14" t="n">
-        <v>1181.22304338293</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M14" t="n">
-        <v>1455.309353437234</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N14" t="n">
         <v>2582.930975126825</v>
@@ -5308,22 +5308,22 @@
         <v>5028.78663466356</v>
       </c>
       <c r="T14" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495542</v>
       </c>
       <c r="U14" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V14" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X14" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>102.9746557451216</v>
       </c>
       <c r="K15" t="n">
-        <v>103.8901172816733</v>
+        <v>103.8901172816732</v>
       </c>
       <c r="L15" t="n">
-        <v>745.0711552263922</v>
+        <v>281.2378818390805</v>
       </c>
       <c r="M15" t="n">
-        <v>746.5076169958626</v>
+        <v>282.6743436085508</v>
       </c>
       <c r="N15" t="n">
-        <v>747.9820976340454</v>
+        <v>284.1488242467336</v>
       </c>
       <c r="O15" t="n">
-        <v>1763.13256917311</v>
+        <v>285.4976859674962</v>
       </c>
       <c r="P15" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q15" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R15" t="n">
         <v>1765.290817548849</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7350307308429</v>
+        <v>1061.946803282069</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1733192140679</v>
+        <v>889.3850917652936</v>
       </c>
       <c r="D16" t="n">
-        <v>614.2953264155906</v>
+        <v>723.5070989668163</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5373226663279</v>
+        <v>584.3963812006136</v>
       </c>
       <c r="F16" t="n">
-        <v>267.8302686280841</v>
+        <v>407.6893271623698</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2438430764959</v>
+        <v>242.1029016107817</v>
       </c>
       <c r="H16" t="n">
         <v>102.2438430764959</v>
@@ -5451,37 +5451,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O16" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P16" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q16" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R16" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S16" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T16" t="n">
-        <v>2297.399967842184</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.967231609249</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V16" t="n">
-        <v>1732.011723479679</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W16" t="n">
-        <v>1459.985319065971</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X16" t="n">
-        <v>1214.593564399383</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="Y16" t="n">
-        <v>987.1738937134915</v>
+        <v>1253.765422001056</v>
       </c>
     </row>
     <row r="17">
@@ -5524,19 +5524,19 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M17" t="n">
-        <v>2452.688555679948</v>
+        <v>2581.040336873681</v>
       </c>
       <c r="N17" t="n">
-        <v>3580.31017736954</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O17" t="n">
-        <v>3582.095453459796</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P17" t="n">
-        <v>4411.929020132404</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q17" t="n">
-        <v>4959.572035206542</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R17" t="n">
         <v>5112.192153824797</v>
@@ -5597,25 +5597,25 @@
         <v>102.9746557451216</v>
       </c>
       <c r="K18" t="n">
-        <v>103.8901172816733</v>
+        <v>103.8901172816732</v>
       </c>
       <c r="L18" t="n">
-        <v>105.1210682925375</v>
+        <v>281.2378818390805</v>
       </c>
       <c r="M18" t="n">
-        <v>1305.282364154508</v>
+        <v>282.6743436085508</v>
       </c>
       <c r="N18" t="n">
-        <v>1306.75684479269</v>
+        <v>284.1488242467336</v>
       </c>
       <c r="O18" t="n">
-        <v>1763.13256917311</v>
+        <v>285.4976859674962</v>
       </c>
       <c r="P18" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q18" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R18" t="n">
         <v>1765.290817548849</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.249144593362</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C19" t="n">
-        <v>868.6874330765869</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D19" t="n">
-        <v>702.8094402781096</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E19" t="n">
-        <v>533.0514365288469</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F19" t="n">
-        <v>356.3443824906031</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G19" t="n">
-        <v>190.757956939015</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H19" t="n">
-        <v>190.757956939015</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I19" t="n">
         <v>102.2438430764959</v>
@@ -5688,37 +5688,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O19" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P19" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q19" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R19" t="n">
-        <v>2720.88974940862</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S19" t="n">
-        <v>2561.732892916562</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T19" t="n">
-        <v>2315.87416675515</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U19" t="n">
-        <v>2037.441430522215</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V19" t="n">
-        <v>1750.485922392645</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.459517978937</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X19" t="n">
-        <v>1233.067763312349</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y19" t="n">
-        <v>1233.067763312349</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C20" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F20" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G20" t="n">
         <v>391.2632799323575</v>
@@ -5758,10 +5758,10 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L20" t="n">
-        <v>1375.768056541166</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M20" t="n">
-        <v>1455.309353437234</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N20" t="n">
         <v>2582.930975126825</v>
@@ -5785,19 +5785,19 @@
         <v>4808.766732495543</v>
       </c>
       <c r="U20" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V20" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X20" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y20" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2438430764959</v>
       </c>
       <c r="I21" t="n">
-        <v>128.5027079435546</v>
+        <v>102.439034783097</v>
       </c>
       <c r="J21" t="n">
-        <v>453.5966538717915</v>
+        <v>102.9746557451216</v>
       </c>
       <c r="K21" t="n">
-        <v>454.5121154083432</v>
+        <v>103.8901172816732</v>
       </c>
       <c r="L21" t="n">
-        <v>455.7430664192074</v>
+        <v>281.2378818390805</v>
       </c>
       <c r="M21" t="n">
-        <v>457.1795281886778</v>
+        <v>282.6743436085508</v>
       </c>
       <c r="N21" t="n">
-        <v>458.6540088268605</v>
+        <v>284.1488242467336</v>
       </c>
       <c r="O21" t="n">
-        <v>460.0028705476232</v>
+        <v>285.4976859674962</v>
       </c>
       <c r="P21" t="n">
         <v>1106.303432895356</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>795.3552749945043</v>
+        <v>975.7119051075392</v>
       </c>
       <c r="C22" t="n">
-        <v>622.7935634777292</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="D22" t="n">
-        <v>456.9155706792519</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="E22" t="n">
-        <v>287.1575669299892</v>
+        <v>633.3921898415015</v>
       </c>
       <c r="F22" t="n">
-        <v>110.4505128917454</v>
+        <v>456.6851358032577</v>
       </c>
       <c r="G22" t="n">
-        <v>110.4505128917454</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2438430764959</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I22" t="n">
         <v>102.2438430764959</v>
@@ -5925,37 +5925,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O22" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P22" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q22" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R22" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S22" t="n">
-        <v>2543.258694003596</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T22" t="n">
-        <v>2297.399967842184</v>
+        <v>2477.756597955219</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.967231609249</v>
+        <v>2199.323861722284</v>
       </c>
       <c r="V22" t="n">
-        <v>1732.011723479679</v>
+        <v>1912.368353592714</v>
       </c>
       <c r="W22" t="n">
-        <v>1459.985319065971</v>
+        <v>1640.341949179006</v>
       </c>
       <c r="X22" t="n">
-        <v>1214.593564399383</v>
+        <v>1394.950194512418</v>
       </c>
       <c r="Y22" t="n">
-        <v>987.1738937134915</v>
+        <v>1167.530523826526</v>
       </c>
     </row>
     <row r="23">
@@ -5995,10 +5995,10 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L23" t="n">
-        <v>1422.131968777207</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M23" t="n">
-        <v>2581.040336873681</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N23" t="n">
         <v>2582.930975126825</v>
@@ -6068,28 +6068,28 @@
         <v>102.439034783097</v>
       </c>
       <c r="J24" t="n">
-        <v>102.9746557451216</v>
+        <v>427.5329807113339</v>
       </c>
       <c r="K24" t="n">
-        <v>103.8901172816733</v>
+        <v>1109.181962318263</v>
       </c>
       <c r="L24" t="n">
-        <v>745.0711552263922</v>
+        <v>1110.412913329127</v>
       </c>
       <c r="M24" t="n">
-        <v>746.5076169958626</v>
+        <v>1111.849375098597</v>
       </c>
       <c r="N24" t="n">
-        <v>747.9820976340454</v>
+        <v>1113.32385573678</v>
       </c>
       <c r="O24" t="n">
-        <v>1763.13256917311</v>
+        <v>1114.672717457543</v>
       </c>
       <c r="P24" t="n">
-        <v>1764.215149621772</v>
+        <v>1115.755297906205</v>
       </c>
       <c r="Q24" t="n">
-        <v>1764.938825982143</v>
+        <v>1657.217912898652</v>
       </c>
       <c r="R24" t="n">
         <v>1765.290817548849</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1004.401149089404</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C25" t="n">
-        <v>831.839437572629</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D25" t="n">
-        <v>665.9614447741517</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E25" t="n">
-        <v>496.2034410248889</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F25" t="n">
-        <v>496.2034410248889</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G25" t="n">
-        <v>330.6170154733007</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H25" t="n">
-        <v>190.757956939015</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I25" t="n">
         <v>102.2438430764959</v>
@@ -6162,37 +6162,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O25" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P25" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q25" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R25" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S25" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T25" t="n">
-        <v>2297.399967842184</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.967231609249</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V25" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W25" t="n">
-        <v>1669.031193160871</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X25" t="n">
-        <v>1423.639438494283</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y25" t="n">
-        <v>1196.219767808391</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E26" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F26" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533107</v>
       </c>
       <c r="G26" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323583</v>
       </c>
       <c r="H26" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J26" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K26" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L26" t="n">
-        <v>1181.22304338293</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M26" t="n">
-        <v>2340.131411479404</v>
+        <v>2581.040336873682</v>
       </c>
       <c r="N26" t="n">
-        <v>3467.753033168996</v>
+        <v>2582.930975126826</v>
       </c>
       <c r="O26" t="n">
-        <v>4449.717975829558</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P26" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q26" t="n">
-        <v>5111.52656428719</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R26" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S26" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663562</v>
       </c>
       <c r="T26" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U26" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V26" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X26" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y26" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I27" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J27" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K27" t="n">
-        <v>103.8901172816733</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L27" t="n">
-        <v>105.1210682925375</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M27" t="n">
-        <v>629.3348389015229</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N27" t="n">
-        <v>630.8093195397057</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O27" t="n">
-        <v>1645.95979107877</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P27" t="n">
-        <v>1647.042371527432</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q27" t="n">
         <v>1647.766047887803</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1011.350199378385</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C28" t="n">
-        <v>838.78848786161</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D28" t="n">
-        <v>672.9104950631327</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E28" t="n">
-        <v>672.9104950631327</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F28" t="n">
-        <v>496.2034410248889</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G28" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H28" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J28" t="n">
         <v>189.1595596197742</v>
@@ -6399,37 +6399,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O28" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P28" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q28" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R28" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S28" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T28" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U28" t="n">
-        <v>2018.967231609249</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V28" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W28" t="n">
-        <v>1459.985319065971</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.769870064277</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y28" t="n">
-        <v>1011.350199378385</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E29" t="n">
-        <v>1220.517729944103</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F29" t="n">
-        <v>792.6503003533107</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G29" t="n">
-        <v>391.2632799323578</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H29" t="n">
         <v>102.243843076496</v>
@@ -6490,25 +6490,25 @@
         <v>5112.192153824798</v>
       </c>
       <c r="S29" t="n">
-        <v>5028.786634663562</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T29" t="n">
         <v>4808.766732495544</v>
       </c>
       <c r="U29" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V29" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X29" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y29" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K30" t="n">
-        <v>1135.24563547872</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L30" t="n">
-        <v>1136.476586489585</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M30" t="n">
-        <v>1137.913048259055</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N30" t="n">
-        <v>1139.387528897238</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O30" t="n">
-        <v>1140.736390618001</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P30" t="n">
-        <v>1141.818971066662</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q30" t="n">
         <v>1647.766047887803</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>795.3552749945043</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C31" t="n">
-        <v>622.7935634777292</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D31" t="n">
-        <v>456.9155706792519</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E31" t="n">
-        <v>287.1575669299892</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F31" t="n">
         <v>267.8302686280841</v>
@@ -6636,37 +6636,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O31" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P31" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q31" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R31" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S31" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T31" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.967231609249</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V31" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W31" t="n">
-        <v>1459.985319065971</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X31" t="n">
-        <v>1214.593564399383</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y31" t="n">
-        <v>987.1738937134915</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="32">
@@ -6706,10 +6706,10 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.768056541166</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M32" t="n">
-        <v>1455.309353437234</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N32" t="n">
         <v>2582.930975126826</v>
@@ -6776,28 +6776,28 @@
         <v>102.243843076496</v>
       </c>
       <c r="I33" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J33" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K33" t="n">
-        <v>103.8901172816733</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L33" t="n">
-        <v>105.1210682925376</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M33" t="n">
-        <v>409.309177159518</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N33" t="n">
-        <v>1644.610929358008</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O33" t="n">
-        <v>1645.95979107877</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P33" t="n">
-        <v>1647.042371527432</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q33" t="n">
         <v>1647.766047887803</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.108203127648</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.546491610873</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D34" t="n">
-        <v>842.6684988123955</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E34" t="n">
-        <v>672.9104950631327</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F34" t="n">
-        <v>496.2034410248889</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G34" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H34" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I34" t="n">
         <v>102.243843076496</v>
@@ -6873,37 +6873,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O34" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P34" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q34" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R34" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S34" t="n">
-        <v>2723.615324116632</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.152895975328</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.720159742392</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.764651612823</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.738247199114</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.346492532527</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y34" t="n">
-        <v>1372.926821846635</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1220.517729944103</v>
       </c>
       <c r="F35" t="n">
-        <v>792.6503003533107</v>
+        <v>792.6503003533103</v>
       </c>
       <c r="G35" t="n">
-        <v>391.2632799323583</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H35" t="n">
         <v>102.243843076496</v>
@@ -6937,34 +6937,34 @@
         <v>102.243843076496</v>
       </c>
       <c r="J35" t="n">
-        <v>293.3810580751187</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K35" t="n">
-        <v>294.7288858289947</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L35" t="n">
-        <v>296.4009853407604</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M35" t="n">
-        <v>1455.309353437234</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.930975126826</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O35" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540445</v>
       </c>
       <c r="P35" t="n">
-        <v>4394.729484459996</v>
+        <v>4563.883549213052</v>
       </c>
       <c r="Q35" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.526564287191</v>
       </c>
       <c r="R35" t="n">
         <v>5112.192153824798</v>
       </c>
       <c r="S35" t="n">
-        <v>5028.786634663562</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T35" t="n">
         <v>4808.766732495544</v>
@@ -7013,28 +7013,28 @@
         <v>102.243843076496</v>
       </c>
       <c r="I36" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J36" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K36" t="n">
-        <v>103.8901172816733</v>
+        <v>820.7458694602918</v>
       </c>
       <c r="L36" t="n">
-        <v>105.1210682925376</v>
+        <v>821.9768204711561</v>
       </c>
       <c r="M36" t="n">
-        <v>106.5575300620079</v>
+        <v>823.4132822406264</v>
       </c>
       <c r="N36" t="n">
-        <v>108.0320107001907</v>
+        <v>824.8877628788091</v>
       </c>
       <c r="O36" t="n">
-        <v>1123.182482239255</v>
+        <v>826.2366245995718</v>
       </c>
       <c r="P36" t="n">
-        <v>1124.265062687917</v>
+        <v>1647.042371527432</v>
       </c>
       <c r="Q36" t="n">
         <v>1647.766047887803</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.108203127648</v>
+        <v>875.3711517948847</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.546491610873</v>
+        <v>702.8094402781096</v>
       </c>
       <c r="D37" t="n">
-        <v>842.6684988123955</v>
+        <v>702.8094402781096</v>
       </c>
       <c r="E37" t="n">
-        <v>672.9104950631327</v>
+        <v>533.0514365288469</v>
       </c>
       <c r="F37" t="n">
-        <v>496.2034410248889</v>
+        <v>356.3443824906032</v>
       </c>
       <c r="G37" t="n">
-        <v>330.6170154733007</v>
+        <v>190.757956939015</v>
       </c>
       <c r="H37" t="n">
         <v>190.757956939015</v>
@@ -7110,13 +7110,13 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O37" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P37" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q37" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R37" t="n">
         <v>2702.415550495654</v>
@@ -7125,22 +7125,22 @@
         <v>2543.258694003596</v>
       </c>
       <c r="T37" t="n">
-        <v>2411.126491561619</v>
+        <v>2297.399967842184</v>
       </c>
       <c r="U37" t="n">
-        <v>2132.693755328684</v>
+        <v>2018.967231609248</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.738247199114</v>
+        <v>1732.011723479679</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.738247199114</v>
+        <v>1459.98531906597</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.346492532527</v>
+        <v>1214.593564399383</v>
       </c>
       <c r="Y37" t="n">
-        <v>1372.926821846635</v>
+        <v>1067.189770513872</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E38" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6503003533095</v>
+        <v>792.6503003533107</v>
       </c>
       <c r="G38" t="n">
-        <v>391.2632799323574</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H38" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J38" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K38" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L38" t="n">
-        <v>1181.22304338293</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M38" t="n">
-        <v>2340.131411479404</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N38" t="n">
-        <v>3467.753033168996</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O38" t="n">
-        <v>4393.205792620784</v>
+        <v>3734.049982540445</v>
       </c>
       <c r="P38" t="n">
-        <v>4394.729484459995</v>
+        <v>4563.883549213052</v>
       </c>
       <c r="Q38" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.526564287191</v>
       </c>
       <c r="R38" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S38" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T38" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U38" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V38" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X38" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y38" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I39" t="n">
         <v>102.439034783097</v>
@@ -7256,25 +7256,25 @@
         <v>427.5329807113339</v>
       </c>
       <c r="K39" t="n">
-        <v>428.4484422478856</v>
+        <v>1109.181962318263</v>
       </c>
       <c r="L39" t="n">
-        <v>429.6793932587498</v>
+        <v>1110.412913329127</v>
       </c>
       <c r="M39" t="n">
-        <v>431.1158550282202</v>
+        <v>1111.849375098597</v>
       </c>
       <c r="N39" t="n">
-        <v>1666.41760722671</v>
+        <v>1113.32385573678</v>
       </c>
       <c r="O39" t="n">
-        <v>1667.766468947472</v>
+        <v>1114.672717457543</v>
       </c>
       <c r="P39" t="n">
-        <v>1668.849049396134</v>
+        <v>1115.755297906205</v>
       </c>
       <c r="Q39" t="n">
-        <v>1669.572725756505</v>
+        <v>1657.217912898652</v>
       </c>
       <c r="R39" t="n">
         <v>1765.290817548849</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>795.3552749945043</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C40" t="n">
-        <v>795.3552749945043</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D40" t="n">
-        <v>795.3552749945043</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E40" t="n">
-        <v>625.5972712452415</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F40" t="n">
-        <v>448.8902172069977</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G40" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H40" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J40" t="n">
         <v>189.1595596197742</v>
@@ -7347,37 +7347,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O40" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P40" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q40" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R40" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S40" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T40" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.967231609249</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V40" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W40" t="n">
-        <v>1459.985319065971</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X40" t="n">
-        <v>1214.593564399383</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y40" t="n">
-        <v>987.1738937134915</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="41">
@@ -7393,70 +7393,70 @@
         <v>2090.202259611362</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.292474785806</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E41" t="n">
         <v>1220.517729944102</v>
       </c>
       <c r="F41" t="n">
-        <v>792.6503003533096</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G41" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H41" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J41" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K41" t="n">
-        <v>938.8412695764827</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.44882055131</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M41" t="n">
-        <v>1455.309353437234</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N41" t="n">
-        <v>2582.930975126825</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O41" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540445</v>
       </c>
       <c r="P41" t="n">
-        <v>4394.729484459995</v>
+        <v>4563.883549213052</v>
       </c>
       <c r="Q41" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.526564287191</v>
       </c>
       <c r="R41" t="n">
-        <v>5112.192153824797</v>
+        <v>5112.192153824798</v>
       </c>
       <c r="S41" t="n">
-        <v>5028.78663466356</v>
+        <v>5028.786634663561</v>
       </c>
       <c r="T41" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U41" t="n">
-        <v>4549.545294689022</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V41" t="n">
-        <v>4186.928344622848</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.072890033882</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X41" t="n">
-        <v>3362.930426613193</v>
+        <v>3362.930426613194</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.644302912846</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2438430764959</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I42" t="n">
         <v>102.439034783097</v>
@@ -7496,22 +7496,22 @@
         <v>1109.181962318263</v>
       </c>
       <c r="L42" t="n">
-        <v>1758.872765044694</v>
+        <v>1110.412913329127</v>
       </c>
       <c r="M42" t="n">
-        <v>1760.309226814165</v>
+        <v>1111.849375098597</v>
       </c>
       <c r="N42" t="n">
-        <v>1761.783707452347</v>
+        <v>1113.32385573678</v>
       </c>
       <c r="O42" t="n">
-        <v>1763.13256917311</v>
+        <v>1114.672717457543</v>
       </c>
       <c r="P42" t="n">
-        <v>1764.215149621772</v>
+        <v>1115.755297906205</v>
       </c>
       <c r="Q42" t="n">
-        <v>1764.938825982143</v>
+        <v>1657.217912898652</v>
       </c>
       <c r="R42" t="n">
         <v>1765.290817548849</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3569.685032835814</v>
+        <v>816.5550486154812</v>
       </c>
       <c r="C43" t="n">
-        <v>3397.123321319038</v>
+        <v>643.9933370987061</v>
       </c>
       <c r="D43" t="n">
-        <v>3231.245328520561</v>
+        <v>478.1153443002288</v>
       </c>
       <c r="E43" t="n">
-        <v>3061.487324771299</v>
+        <v>308.3573405509661</v>
       </c>
       <c r="F43" t="n">
-        <v>2884.780270733055</v>
+        <v>131.6502865127223</v>
       </c>
       <c r="G43" t="n">
-        <v>2719.193845181467</v>
+        <v>131.6502865127223</v>
       </c>
       <c r="H43" t="n">
-        <v>2579.334786647181</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I43" t="n">
-        <v>2490.820672784662</v>
+        <v>102.243843076496</v>
       </c>
       <c r="J43" t="n">
-        <v>2577.73638932794</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K43" t="n">
-        <v>2853.047046678857</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L43" t="n">
-        <v>3271.963557888175</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M43" t="n">
-        <v>3732.192466738241</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N43" t="n">
-        <v>4175.178596139395</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O43" t="n">
-        <v>4595.519648872222</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P43" t="n">
-        <v>4943.601386800484</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q43" t="n">
-        <v>5112.192153824797</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R43" t="n">
-        <v>5090.992380203819</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S43" t="n">
-        <v>4931.835523711761</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T43" t="n">
-        <v>4685.976797550349</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U43" t="n">
-        <v>4407.544061317413</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V43" t="n">
-        <v>4120.588553187844</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W43" t="n">
-        <v>3848.562148774135</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X43" t="n">
-        <v>3761.503651554801</v>
+        <v>1235.79333802036</v>
       </c>
       <c r="Y43" t="n">
-        <v>3761.503651554801</v>
+        <v>1008.373667334468</v>
       </c>
     </row>
     <row r="44">
@@ -7657,19 +7657,19 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M44" t="n">
-        <v>2581.040336873681</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.930975126825</v>
+        <v>2752.085039879882</v>
       </c>
       <c r="O44" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540444</v>
       </c>
       <c r="P44" t="n">
-        <v>4394.729484459995</v>
+        <v>4563.883549213051</v>
       </c>
       <c r="Q44" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.52656428719</v>
       </c>
       <c r="R44" t="n">
         <v>5112.192153824797</v>
@@ -7678,7 +7678,7 @@
         <v>5028.78663466356</v>
       </c>
       <c r="T44" t="n">
-        <v>4808.766732495543</v>
+        <v>4808.766732495544</v>
       </c>
       <c r="U44" t="n">
         <v>4549.545294689023</v>
@@ -7730,22 +7730,22 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K45" t="n">
-        <v>1135.24563547872</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L45" t="n">
-        <v>1136.476586489585</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M45" t="n">
-        <v>1137.913048259055</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N45" t="n">
-        <v>1139.387528897238</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O45" t="n">
-        <v>1140.736390618001</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P45" t="n">
-        <v>1141.818971066662</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q45" t="n">
         <v>1647.766047887803</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>795.3552749945043</v>
+        <v>816.5550486154812</v>
       </c>
       <c r="C46" t="n">
-        <v>622.7935634777292</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9155706792519</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E46" t="n">
-        <v>456.9155706792519</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F46" t="n">
-        <v>280.2085166410081</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G46" t="n">
-        <v>114.62209108942</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H46" t="n">
-        <v>114.62209108942</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I46" t="n">
         <v>102.2438430764959</v>
@@ -7821,37 +7821,37 @@
         <v>1786.60176643123</v>
       </c>
       <c r="O46" t="n">
-        <v>2206.942819164057</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P46" t="n">
         <v>2555.024557092318</v>
       </c>
       <c r="Q46" t="n">
-        <v>2723.615324116632</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R46" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S46" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T46" t="n">
-        <v>2297.399967842184</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U46" t="n">
-        <v>2018.967231609249</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V46" t="n">
-        <v>1732.011723479679</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W46" t="n">
-        <v>1459.985319065971</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X46" t="n">
-        <v>1214.593564399383</v>
+        <v>1235.79333802036</v>
       </c>
       <c r="Y46" t="n">
-        <v>987.1738937134915</v>
+        <v>1008.373667334468</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>598.6708407308724</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>562.6390695069881</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>10.62009379123452</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>598.670840730872</v>
       </c>
       <c r="P5" t="n">
-        <v>598.6708407308724</v>
+        <v>598.670840730872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>598.670840730872</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>416.8120327563938</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>598.6708407308726</v>
+        <v>62.64839828501044</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8376,13 +8376,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>4.937919528642738</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>191.5292453971026</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8452,14 +8452,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>316.389926674475</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>274.9755324933135</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320535</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>177.8957712591343</v>
       </c>
       <c r="M12" t="n">
-        <v>770.0916767610213</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>274.9755324933135</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>646.4142292261158</v>
+        <v>177.8957712591343</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>153.4894233137857</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>177.8957712591343</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>459.623093595613</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>78.46541819206459</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>177.8957712591343</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>651.7353352515871</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9643,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>46.83223458185876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9716,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>646.4142292261158</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>108.8090031146378</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>129.6482638320535</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>665.7986540433103</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>528.0578877166819</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>510.3266671320905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>78.4654181920655</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320535</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>305.8097445429395</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>192.1595032431211</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>300.5109555018075</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>369.9330849009583</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>528.0578877166818</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>300.5109555018075</v>
       </c>
       <c r="O38" t="n">
-        <v>932.9974579409418</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>96.32939416731074</v>
+        <v>108.8090031146378</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>518.1166176394564</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>300.5109555018075</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>655.0099512278455</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>108.8090031146378</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>129.6482638320526</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>300.5109555018066</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>510.3266671320905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.9554153539508</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.8059581789752</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>30.34081312322945</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.62897272389382</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>138.4604679489429</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.28945692383648</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>39.12312216941484</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3358648318459</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>134.8181822942081</v>
       </c>
       <c r="W25" t="n">
-        <v>206.9554153539509</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>23.93454260824464</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.8059581789753</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S34" t="n">
-        <v>157.5652879271376</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T34" t="n">
-        <v>203.3423350399071</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>112.5892584822409</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>79.21571803237688</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>46.84009157971224</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.3480889470788</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>156.7499248727804</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>134.8181822942082</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.4604679489429</v>
       </c>
       <c r="I46" t="n">
-        <v>75.37450719109899</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>492281.2454795183</v>
+        <v>492281.2454795182</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>528796.1245473443</v>
+        <v>528796.1245473444</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528796.1245473443</v>
+        <v>528796.1245473444</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528796.1245473443</v>
+        <v>528796.1245473444</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528796.1245473443</v>
+        <v>528796.1245473444</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528796.1245473443</v>
+        <v>528796.1245473444</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>528796.1245473443</v>
+        <v>528796.1245473444</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
         <v>509339.9538958882</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
+        <v>500632.738802067</v>
+      </c>
+      <c r="F2" t="n">
+        <v>500632.7388020668</v>
+      </c>
+      <c r="G2" t="n">
         <v>500632.7388020667</v>
-      </c>
-      <c r="F2" t="n">
-        <v>500632.7388020667</v>
-      </c>
-      <c r="G2" t="n">
-        <v>500632.7388020666</v>
       </c>
       <c r="H2" t="n">
         <v>500632.7388020667</v>
       </c>
       <c r="I2" t="n">
-        <v>500632.7388020666</v>
+        <v>500632.7388020667</v>
       </c>
       <c r="J2" t="n">
+        <v>500632.7388020669</v>
+      </c>
+      <c r="K2" t="n">
         <v>500632.7388020667</v>
-      </c>
-      <c r="K2" t="n">
-        <v>500632.7388020668</v>
       </c>
       <c r="L2" t="n">
         <v>500632.7388020667</v>
       </c>
       <c r="M2" t="n">
+        <v>500632.7388020668</v>
+      </c>
+      <c r="N2" t="n">
         <v>500632.7388020667</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>500632.7388020668</v>
       </c>
-      <c r="O2" t="n">
-        <v>500632.7388020667</v>
-      </c>
       <c r="P2" t="n">
-        <v>500632.7388020669</v>
+        <v>500632.7388020668</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>56335.44544714138</v>
+        <v>56335.44544714118</v>
       </c>
       <c r="D3" t="n">
-        <v>21385.12537236766</v>
+        <v>21385.12537236785</v>
       </c>
       <c r="E3" t="n">
         <v>184430.5981858014</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>44878.54067898905</v>
+        <v>44878.54067898884</v>
       </c>
       <c r="L3" t="n">
-        <v>17423.88940417186</v>
+        <v>17423.88940417201</v>
       </c>
       <c r="M3" t="n">
-        <v>152147.2238279343</v>
+        <v>152147.2238279344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>192623.6608176005</v>
+        <v>192623.6608176006</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26472,13 +26472,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>70026.78711643704</v>
+        <v>70026.78711643702</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="F5" t="n">
         <v>77763.35959750945</v>
@@ -26493,7 +26493,7 @@
         <v>77763.35959750945</v>
       </c>
       <c r="J5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="K5" t="n">
         <v>77763.35959750946</v>
@@ -26505,10 +26505,10 @@
         <v>77763.35959750946</v>
       </c>
       <c r="N5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="O5" t="n">
-        <v>77763.35959750945</v>
+        <v>77763.35959750946</v>
       </c>
       <c r="P5" t="n">
         <v>77763.35959750945</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89498.59906638681</v>
+        <v>89498.59906638676</v>
       </c>
       <c r="C6" t="n">
-        <v>190354.0605147093</v>
+        <v>190354.0605147094</v>
       </c>
       <c r="D6" t="n">
-        <v>231226.3216884352</v>
+        <v>231226.3216884349</v>
       </c>
       <c r="E6" t="n">
-        <v>130421.7298276046</v>
+        <v>130398.8161036737</v>
       </c>
       <c r="F6" t="n">
-        <v>314852.328013406</v>
+        <v>314829.414289475</v>
       </c>
       <c r="G6" t="n">
-        <v>314852.3280134058</v>
+        <v>314829.4142894748</v>
       </c>
       <c r="H6" t="n">
-        <v>314852.328013406</v>
+        <v>314829.4142894748</v>
       </c>
       <c r="I6" t="n">
-        <v>314852.3280134058</v>
+        <v>314829.4142894748</v>
       </c>
       <c r="J6" t="n">
-        <v>203837.8626684158</v>
+        <v>203814.9489444848</v>
       </c>
       <c r="K6" t="n">
-        <v>269973.787334417</v>
+        <v>269950.8736104859</v>
       </c>
       <c r="L6" t="n">
-        <v>297428.4386092341</v>
+        <v>297405.5248853027</v>
       </c>
       <c r="M6" t="n">
-        <v>162705.1041854717</v>
+        <v>162682.1904615405</v>
       </c>
       <c r="N6" t="n">
-        <v>314852.328013406</v>
+        <v>314829.4142894748</v>
       </c>
       <c r="O6" t="n">
-        <v>314852.328013406</v>
+        <v>314829.414289475</v>
       </c>
       <c r="P6" t="n">
-        <v>314852.3280134062</v>
+        <v>314829.414289475</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="H3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="I3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="J3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="K3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="L3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="M3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="N3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="O3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="P3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>598.6708407308726</v>
+        <v>598.670840730872</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740332</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>174.3749832107682</v>
+        <v>174.3749832107676</v>
       </c>
       <c r="D4" t="n">
-        <v>68.84436587698438</v>
+        <v>68.84436587698499</v>
       </c>
       <c r="E4" t="n">
-        <v>610.5328318483423</v>
+        <v>610.5328318483425</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>174.3749832107684</v>
+        <v>174.3749832107676</v>
       </c>
       <c r="L4" t="n">
-        <v>68.84436587698438</v>
+        <v>68.84436587698499</v>
       </c>
       <c r="M4" t="n">
-        <v>610.5328318483423</v>
+        <v>610.5328318483425</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>174.3749832107682</v>
+        <v>174.3749832107676</v>
       </c>
       <c r="L4" t="n">
-        <v>68.84436587698438</v>
+        <v>68.84436587698499</v>
       </c>
       <c r="M4" t="n">
-        <v>610.5328318483423</v>
+        <v>610.5328318483425</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>296.1994428158058</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>260.0520649523755</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.5816319150183</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>141.422144755189</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.6696528934548</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>237.0134651184764</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.14650465113421</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>67.88804703583753</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.742286579561437</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>86.55764165756233</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.07191583437682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K11" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L11" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M11" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N11" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O11" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P11" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I12" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L12" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M12" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N12" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O12" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P12" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R13" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K14" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L14" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M14" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P14" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I15" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M15" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O15" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P15" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R16" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K17" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N17" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O17" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P17" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I18" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M18" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P18" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R19" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K20" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L20" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N20" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O20" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P20" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T20" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I21" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L21" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M21" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N21" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P21" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R22" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K23" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L23" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M23" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N23" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O23" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P23" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T23" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I24" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L24" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M24" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N24" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O24" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P24" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R25" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K26" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L26" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N26" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O26" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P26" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I27" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M27" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N27" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O27" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P27" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R28" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K29" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L29" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M29" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N29" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O29" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P29" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T29" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I30" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L30" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M30" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N30" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O30" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P30" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R31" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K32" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L32" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N32" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O32" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P32" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T32" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I33" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L33" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M33" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N33" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O33" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P33" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T33" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R34" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K35" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L35" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M35" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N35" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O35" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P35" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T35" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I36" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L36" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M36" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N36" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O36" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P36" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T36" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R37" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K38" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L38" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M38" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N38" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O38" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P38" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I39" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L39" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M39" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N39" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O39" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P39" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R40" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S40" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817581</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K41" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L41" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>1.87932614739724</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N41" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O41" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P41" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.15578698539787</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642497383</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T41" t="n">
-        <v>0.04685170935471679</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0008562276980873423</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005726527582196187</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I42" t="n">
-        <v>0.197163340001053</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5410312747723162</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794606</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L42" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M42" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N42" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O42" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P42" t="n">
-        <v>1.093515604709025</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225975343</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3555470370770581</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T42" t="n">
-        <v>0.02308192477209778</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0003767452356708019</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04268461758636142</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3394256349377633</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5577805856377285</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7137671124819573</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425783531</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7346729732425581</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6785894010559786</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5806504625449403</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4020122828097902</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R43" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08366708784565925</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T43" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0002618688195482297</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01070284622609178</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1096105239129625</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791314037</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9083906948817579</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K44" t="n">
-        <v>1.361442175632223</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L44" t="n">
-        <v>1.68898940582398</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>1.879326147397239</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N44" t="n">
-        <v>1.909735609237123</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O44" t="n">
-        <v>1.803309182076423</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P44" t="n">
-        <v>1.539082665869782</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.155786985397869</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>0.6723126642497382</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2438911083770667</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04685170935471678</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0008562276980873422</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005726527582196186</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0553062005964737</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1971633400010529</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5410312747723161</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9247086227794604</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L45" t="n">
-        <v>1.243384859458869</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M45" t="n">
-        <v>1.450971484313481</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N45" t="n">
-        <v>1.489374382002858</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O45" t="n">
-        <v>1.362486586628932</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P45" t="n">
-        <v>1.093515604709024</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7309862225975342</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R45" t="n">
-        <v>0.355547037077058</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1063677382043896</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T45" t="n">
-        <v>0.02308192477209777</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0003767452356708018</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004800928358384205</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04268461758636141</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1443770091775905</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3394256349377632</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5577805856377284</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7137671124819572</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M46" t="n">
-        <v>0.752567342578353</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7346729732425579</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6785894010559785</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5806504625449402</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4020122828097901</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R46" t="n">
-        <v>0.215867196914257</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08366708784565924</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T46" t="n">
-        <v>0.02051305753127796</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0002618688195482296</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>598.6708407308724</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>562.6390695069881</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>10.62009379123452</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>598.670840730872</v>
       </c>
       <c r="P5" t="n">
-        <v>598.6708407308724</v>
+        <v>598.670840730872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>598.670840730872</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>416.8120327563938</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>598.6708407308726</v>
+        <v>62.64839828501044</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>4.937919528642738</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>191.5292453971026</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35172,14 +35172,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>316.389926674475</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817599</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K11" t="n">
-        <v>1.36144217563222</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L11" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M11" t="n">
-        <v>276.8548586407107</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N11" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412906</v>
       </c>
       <c r="O11" t="n">
         <v>991.8837804652144</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.52410592632187</v>
+        <v>0.1971633400010546</v>
       </c>
       <c r="J12" t="n">
-        <v>328.3777231598353</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794625</v>
+        <v>0.9247086227794483</v>
       </c>
       <c r="L12" t="n">
-        <v>1.243384859458843</v>
+        <v>179.1391561185932</v>
       </c>
       <c r="M12" t="n">
-        <v>771.5426482453348</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N12" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O12" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P12" t="n">
-        <v>1.093515604708955</v>
+        <v>829.0967140685456</v>
       </c>
       <c r="Q12" t="n">
         <v>546.9319343358052</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.79365307401845</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K13" t="n">
         <v>278.0915730817343</v>
@@ -35582,7 +35582,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O13" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P13" t="n">
         <v>351.5977150790518</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817599</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K14" t="n">
-        <v>1.36144217563222</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L14" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M14" t="n">
-        <v>276.8548586407107</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N14" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O14" t="n">
         <v>991.8837804652144</v>
@@ -35728,28 +35728,28 @@
         <v>0.5410312747723225</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794625</v>
+        <v>0.9247086227794483</v>
       </c>
       <c r="L15" t="n">
-        <v>647.6576140855748</v>
+        <v>179.1391561185932</v>
       </c>
       <c r="M15" t="n">
-        <v>1.450971484313527</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002893</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O15" t="n">
-        <v>1025.404516706126</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P15" t="n">
-        <v>1.093515604708955</v>
+        <v>829.0967140685456</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.79365307401845</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K16" t="n">
         <v>278.0915730817343</v>
@@ -35819,7 +35819,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O16" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P16" t="n">
         <v>351.5977150790518</v>
@@ -35892,13 +35892,13 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397023</v>
+        <v>131.5275899794497</v>
       </c>
       <c r="N17" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O17" t="n">
-        <v>1.803309182076646</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P17" t="n">
         <v>838.2157239117246</v>
@@ -35907,7 +35907,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R17" t="n">
-        <v>154.1617359780357</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0.5410312747723225</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794625</v>
+        <v>0.9247086227794483</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458871</v>
+        <v>179.1391561185932</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.284137234313</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002779</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>460.9855801822418</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P18" t="n">
-        <v>1.093515604708955</v>
+        <v>829.0967140685456</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.79365307401845</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K19" t="n">
         <v>278.0915730817343</v>
@@ -36056,7 +36056,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O19" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P19" t="n">
         <v>351.5977150790518</v>
@@ -36126,13 +36126,13 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L20" t="n">
-        <v>1.688989405824032</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M20" t="n">
-        <v>80.34474433946184</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N20" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O20" t="n">
         <v>991.8837804652144</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.52410592632187</v>
+        <v>0.1971633400010546</v>
       </c>
       <c r="J21" t="n">
-        <v>328.3777231598353</v>
+        <v>0.5410312747723225</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794625</v>
+        <v>0.9247086227794483</v>
       </c>
       <c r="L21" t="n">
-        <v>1.243384859458843</v>
+        <v>179.1391561185932</v>
       </c>
       <c r="M21" t="n">
         <v>1.45097148431347</v>
@@ -36217,7 +36217,7 @@
         <v>1.362486586628904</v>
       </c>
       <c r="P21" t="n">
-        <v>652.8288508562962</v>
+        <v>829.0967140685456</v>
       </c>
       <c r="Q21" t="n">
         <v>546.9319343358052</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.79365307401845</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K22" t="n">
         <v>278.0915730817343</v>
@@ -36293,7 +36293,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O22" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P22" t="n">
         <v>351.5977150790518</v>
@@ -36363,13 +36363,13 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L23" t="n">
-        <v>48.52122398768279</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M23" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N23" t="n">
-        <v>1.909735609237032</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O23" t="n">
         <v>991.8837804652144</v>
@@ -36436,31 +36436,31 @@
         <v>0.1971633400010546</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794625</v>
+        <v>688.5343248554838</v>
       </c>
       <c r="L24" t="n">
-        <v>647.6576140855748</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M24" t="n">
-        <v>1.450971484313527</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N24" t="n">
-        <v>1.489374382002893</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O24" t="n">
-        <v>1025.404516706126</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P24" t="n">
         <v>1.093515604708955</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3555470370770308</v>
+        <v>109.1645501517148</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.79365307401845</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K25" t="n">
         <v>278.0915730817343</v>
@@ -36530,7 +36530,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O25" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P25" t="n">
         <v>351.5977150790518</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817599</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K26" t="n">
-        <v>1.36144217563222</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L26" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M26" t="n">
-        <v>1170.614513228762</v>
+        <v>131.5275899794506</v>
       </c>
       <c r="N26" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O26" t="n">
         <v>991.8837804652144</v>
       </c>
       <c r="P26" t="n">
-        <v>667.3377367091798</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859458871</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M27" t="n">
-        <v>529.5088592009953</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N27" t="n">
-        <v>1.489374382002893</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O27" t="n">
-        <v>1025.404516706126</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P27" t="n">
         <v>1.093515604708955</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R27" t="n">
         <v>118.7118885465111</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.79365307401845</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K28" t="n">
         <v>278.0915730817343</v>
@@ -36767,7 +36767,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O28" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P28" t="n">
         <v>351.5977150790518</v>
@@ -36913,7 +36913,7 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K30" t="n">
-        <v>688.5343248554839</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L30" t="n">
         <v>1.243384859458956</v>
@@ -36931,7 +36931,7 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q30" t="n">
-        <v>511.057653354688</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R30" t="n">
         <v>118.7118885465111</v>
@@ -37004,7 +37004,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O31" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P31" t="n">
         <v>351.5977150790518</v>
@@ -37074,13 +37074,13 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L32" t="n">
-        <v>1.688989405824032</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M32" t="n">
-        <v>80.34474433946275</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N32" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412906</v>
       </c>
       <c r="O32" t="n">
         <v>991.8837804652144</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L33" t="n">
-        <v>1.243384859458871</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M33" t="n">
-        <v>307.260716027253</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N33" t="n">
-        <v>1247.779547675242</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O33" t="n">
         <v>1.362486586628847</v>
@@ -37168,7 +37168,7 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R33" t="n">
         <v>118.7118885465111</v>
@@ -37241,7 +37241,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O34" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P34" t="n">
         <v>351.5977150790518</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>193.0678939380028</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K35" t="n">
-        <v>1.361442175632249</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L35" t="n">
-        <v>1.688989405823975</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M35" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N35" t="n">
-        <v>1139.011739080396</v>
+        <v>302.4206911110446</v>
       </c>
       <c r="O35" t="n">
         <v>991.8837804652144</v>
@@ -37329,7 +37329,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R35" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5410312747723225</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9247086227794625</v>
+        <v>370.8577935237378</v>
       </c>
       <c r="L36" t="n">
-        <v>1.243384859458871</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M36" t="n">
-        <v>1.450971484313484</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N36" t="n">
-        <v>1.489374382002865</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O36" t="n">
-        <v>1025.404516706126</v>
+        <v>1.362486586628961</v>
       </c>
       <c r="P36" t="n">
-        <v>1.093515604708955</v>
+        <v>829.0967140685456</v>
       </c>
       <c r="Q36" t="n">
-        <v>528.7888739392793</v>
+        <v>0.7309862225974939</v>
       </c>
       <c r="R36" t="n">
         <v>118.7118885465111</v>
@@ -37478,7 +37478,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O37" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P37" t="n">
         <v>351.5977150790518</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817599</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K38" t="n">
-        <v>1.36144217563222</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L38" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M38" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N38" t="n">
-        <v>1139.011739080396</v>
+        <v>302.4206911110446</v>
       </c>
       <c r="O38" t="n">
-        <v>934.8007671230184</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P38" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q38" t="n">
         <v>553.17476270115</v>
       </c>
       <c r="R38" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794625</v>
+        <v>688.5343248554838</v>
       </c>
       <c r="L39" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M39" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N39" t="n">
-        <v>1247.779547675242</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O39" t="n">
         <v>1.362486586628847</v>
@@ -37642,10 +37642,10 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R39" t="n">
-        <v>96.68494120438777</v>
+        <v>109.1645501517148</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.79365307401845</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K40" t="n">
         <v>278.0915730817343</v>
@@ -37715,7 +37715,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O40" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P40" t="n">
         <v>351.5977150790518</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817599</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K41" t="n">
         <v>844.1395148606605</v>
       </c>
       <c r="L41" t="n">
-        <v>519.8056070452805</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397251</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N41" t="n">
-        <v>1139.011739080396</v>
+        <v>302.4206911110446</v>
       </c>
       <c r="O41" t="n">
         <v>991.8837804652144</v>
@@ -37803,7 +37803,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R41" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>688.5343248554838</v>
       </c>
       <c r="L42" t="n">
-        <v>656.2533360873044</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M42" t="n">
         <v>1.450971484313413</v>
@@ -37879,10 +37879,10 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3555470370770308</v>
+        <v>109.1645501517148</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.79365307401849</v>
+        <v>87.79365307401844</v>
       </c>
       <c r="K43" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L43" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M43" t="n">
         <v>464.8776857071371</v>
@@ -37955,10 +37955,10 @@
         <v>424.5869219523502</v>
       </c>
       <c r="P43" t="n">
-        <v>351.5977150790523</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.2937040649631</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M44" t="n">
-        <v>131.5275899794497</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N44" t="n">
-        <v>1.909735609237032</v>
+        <v>302.4206911110437</v>
       </c>
       <c r="O44" t="n">
         <v>991.8837804652144</v>
@@ -38040,7 +38040,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R44" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K45" t="n">
-        <v>688.5343248554839</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L45" t="n">
         <v>1.243384859458956</v>
@@ -38116,7 +38116,7 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q45" t="n">
-        <v>511.057653354688</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R45" t="n">
         <v>118.7118885465111</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.79365307401845</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K46" t="n">
         <v>278.0915730817343</v>
@@ -38189,7 +38189,7 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O46" t="n">
-        <v>424.5869219523506</v>
+        <v>424.5869219523502</v>
       </c>
       <c r="P46" t="n">
         <v>351.5977150790518</v>
